--- a/data/Rivers/LHorowhenuaInflowatculvdsQueenSt_cd025426c3.xlsx
+++ b/data/Rivers/LHorowhenuaInflowatculvdsQueenSt_cd025426c3.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -531,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -566,7 +566,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -605,7 +605,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -644,7 +644,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -687,7 +687,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -727,7 +727,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -857,7 +857,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -901,7 +901,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -945,7 +945,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -988,7 +988,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2299,7 +2299,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2508,7 +2508,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2551,7 +2551,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2852,7 +2852,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -3013,7 +3013,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -3282,7 +3282,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -3360,7 +3360,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -3395,7 +3395,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3469,7 +3469,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3508,7 +3508,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -3543,7 +3543,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3582,7 +3582,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3699,7 +3699,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3738,7 +3738,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3781,7 +3781,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3851,7 +3851,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3925,7 +3925,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3964,7 +3964,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -4155,7 +4155,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -4194,7 +4194,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -4272,7 +4272,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -4307,7 +4307,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -4381,7 +4381,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -4455,7 +4455,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -4494,7 +4494,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -4693,7 +4693,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -4728,7 +4728,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4837,7 +4837,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -4950,7 +4950,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -5067,7 +5067,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -5106,7 +5106,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -5149,7 +5149,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -5184,7 +5184,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -5219,7 +5219,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -5254,7 +5254,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -5293,7 +5293,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -5359,7 +5359,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -5429,7 +5429,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -5499,7 +5499,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -5538,7 +5538,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -5600,7 +5600,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -5631,7 +5631,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -5666,7 +5666,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -5779,7 +5779,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -5857,7 +5857,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -5935,7 +5935,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -5978,7 +5978,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -6013,7 +6013,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -6048,7 +6048,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -6083,7 +6083,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -6122,7 +6122,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -6235,7 +6235,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -6352,7 +6352,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -6391,7 +6391,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -6578,7 +6578,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -6617,7 +6617,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -6691,7 +6691,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -6769,7 +6769,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -6847,7 +6847,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -6890,7 +6890,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -6960,7 +6960,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -6995,7 +6995,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -7034,7 +7034,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -7073,7 +7073,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
@@ -7108,7 +7108,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
@@ -7147,7 +7147,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -7264,7 +7264,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -7303,7 +7303,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
@@ -7346,7 +7346,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -7381,7 +7381,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
@@ -7416,7 +7416,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -7451,7 +7451,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -7490,7 +7490,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
@@ -7525,7 +7525,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
@@ -7591,7 +7591,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -7696,7 +7696,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
@@ -7735,7 +7735,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -7766,7 +7766,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
@@ -7863,7 +7863,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
@@ -7902,7 +7902,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
@@ -7976,7 +7976,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
@@ -8054,7 +8054,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C197" s="2" t="n">
@@ -8093,7 +8093,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
@@ -8132,7 +8132,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -8210,7 +8210,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -8245,7 +8245,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -8280,7 +8280,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
@@ -8358,7 +8358,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C205" s="2" t="n">
@@ -8393,7 +8393,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
@@ -8432,7 +8432,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
@@ -8510,7 +8510,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
@@ -8549,7 +8549,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
@@ -8588,7 +8588,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -8631,7 +8631,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C212" s="2" t="n">
@@ -8666,7 +8666,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -8701,7 +8701,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
@@ -8736,7 +8736,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C215" s="2" t="n">
@@ -8775,7 +8775,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C216" s="2" t="n">
@@ -8814,7 +8814,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C217" s="2" t="n">
@@ -8849,7 +8849,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C218" s="2" t="n">
@@ -8888,7 +8888,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C219" s="2" t="n">
@@ -8966,7 +8966,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C221" s="2" t="n">
@@ -9005,7 +9005,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
@@ -9044,7 +9044,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C223" s="2" t="n">
@@ -9087,7 +9087,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
@@ -9122,7 +9122,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C225" s="2" t="n">
@@ -9157,7 +9157,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C226" s="2" t="n">
@@ -9192,7 +9192,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C228" s="2" t="n">
@@ -9270,7 +9270,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C229" s="2" t="n">
@@ -9305,7 +9305,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C230" s="2" t="n">
@@ -9344,7 +9344,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">
@@ -9422,7 +9422,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C233" s="2" t="n">
@@ -9461,7 +9461,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C234" s="2" t="n">
@@ -9500,7 +9500,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C235" s="2" t="n">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C236" s="2" t="n">
@@ -9578,7 +9578,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C237" s="2" t="n">
@@ -9613,7 +9613,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C238" s="2" t="n">
@@ -9648,7 +9648,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C239" s="2" t="n">
@@ -9687,7 +9687,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C240" s="2" t="n">
@@ -9726,7 +9726,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C241" s="2" t="n">
@@ -9761,7 +9761,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C242" s="2" t="n">
@@ -9800,7 +9800,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C243" s="2" t="n">
@@ -9878,7 +9878,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C245" s="2" t="n">
@@ -9917,7 +9917,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C246" s="2" t="n">
@@ -9956,7 +9956,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C247" s="2" t="n">
@@ -9999,7 +9999,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C248" s="2" t="n">
@@ -10034,7 +10034,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C249" s="2" t="n">
@@ -10069,7 +10069,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C250" s="2" t="n">
@@ -10104,7 +10104,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C251" s="2" t="n">
@@ -10143,7 +10143,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C252" s="2" t="n">
@@ -10182,7 +10182,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C253" s="2" t="n">
@@ -10217,7 +10217,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C254" s="2" t="n">
@@ -10256,7 +10256,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C255" s="2" t="n">
@@ -10334,7 +10334,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C257" s="2" t="n">
@@ -10373,7 +10373,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C258" s="2" t="n">
@@ -10412,7 +10412,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C259" s="2" t="n">
@@ -10455,7 +10455,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C260" s="2" t="n">
@@ -10490,7 +10490,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C261" s="2" t="n">
@@ -10525,7 +10525,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C262" s="2" t="n">
@@ -10560,7 +10560,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C263" s="2" t="n">
@@ -10599,7 +10599,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C264" s="2" t="n">
@@ -10638,7 +10638,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C265" s="2" t="n">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C266" s="2" t="n">
@@ -10712,7 +10712,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C267" s="2" t="n">
@@ -10751,7 +10751,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C268" s="2" t="n">
@@ -10829,7 +10829,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C270" s="2" t="n">
@@ -10868,7 +10868,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C271" s="2" t="n">
@@ -10907,7 +10907,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C272" s="2" t="n">
@@ -10950,7 +10950,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C273" s="2" t="n">
@@ -10985,7 +10985,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C274" s="2" t="n">
@@ -11020,7 +11020,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C275" s="2" t="n">
@@ -11055,7 +11055,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C276" s="2" t="n">
@@ -11094,7 +11094,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C277" s="2" t="n">
@@ -11133,7 +11133,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C278" s="2" t="n">
@@ -11168,7 +11168,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C279" s="2" t="n">
@@ -11207,7 +11207,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C280" s="2" t="n">
@@ -11285,7 +11285,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C282" s="2" t="n">
@@ -11324,7 +11324,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C283" s="2" t="n">
@@ -11363,7 +11363,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C284" s="2" t="n">
@@ -11406,7 +11406,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C285" s="2" t="n">
@@ -11441,7 +11441,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C286" s="2" t="n">
@@ -11476,7 +11476,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C287" s="2" t="n">
@@ -11511,7 +11511,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C288" s="2" t="n">
@@ -11550,7 +11550,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C289" s="2" t="n">
@@ -11589,7 +11589,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C290" s="2" t="n">
@@ -11624,7 +11624,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C291" s="2" t="n">
@@ -11663,7 +11663,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C292" s="2" t="n">
@@ -11741,7 +11741,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C294" s="2" t="n">
@@ -11780,7 +11780,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C295" s="2" t="n">
@@ -11819,7 +11819,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C296" s="2" t="n">
@@ -11862,7 +11862,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C297" s="2" t="n">
@@ -11897,7 +11897,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C298" s="2" t="n">
@@ -11932,7 +11932,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C299" s="2" t="n">
@@ -11967,7 +11967,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C300" s="2" t="n">
@@ -12006,7 +12006,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C301" s="2" t="n">
@@ -12045,7 +12045,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C302" s="2" t="n">
@@ -12080,7 +12080,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C303" s="2" t="n">
@@ -12119,7 +12119,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C304" s="2" t="n">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C306" s="2" t="n">
@@ -12236,7 +12236,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C307" s="2" t="n">
@@ -12275,7 +12275,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C308" s="2" t="n">
@@ -12318,7 +12318,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C309" s="2" t="n">
@@ -12353,7 +12353,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C310" s="2" t="n">
@@ -12388,7 +12388,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C311" s="2" t="n">
@@ -12423,7 +12423,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C312" s="2" t="n">
@@ -12462,7 +12462,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C313" s="2" t="n">
@@ -12501,7 +12501,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C314" s="2" t="n">
@@ -12536,7 +12536,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C315" s="2" t="n">
@@ -12575,7 +12575,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C316" s="2" t="n">
@@ -12653,7 +12653,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C318" s="2" t="n">
@@ -12692,7 +12692,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C319" s="2" t="n">
@@ -12731,7 +12731,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C320" s="2" t="n">
@@ -12774,7 +12774,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C321" s="2" t="n">
@@ -12809,7 +12809,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C322" s="2" t="n">
@@ -12844,7 +12844,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C323" s="2" t="n">
@@ -12879,7 +12879,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C324" s="2" t="n">
@@ -12918,7 +12918,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C325" s="2" t="n">
@@ -12957,7 +12957,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C326" s="2" t="n">
@@ -12992,7 +12992,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C327" s="2" t="n">
@@ -13031,7 +13031,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C328" s="2" t="n">
@@ -13109,7 +13109,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C330" s="2" t="n">
@@ -13148,7 +13148,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C331" s="2" t="n">
@@ -13187,7 +13187,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C332" s="2" t="n">
@@ -13230,7 +13230,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C333" s="2" t="n">
@@ -13265,7 +13265,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C334" s="2" t="n">
@@ -13300,7 +13300,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C335" s="2" t="n">
@@ -13335,7 +13335,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C336" s="2" t="n">
@@ -13374,7 +13374,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C337" s="2" t="n">
@@ -13413,7 +13413,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C338" s="2" t="n">
@@ -13448,7 +13448,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C339" s="2" t="n">
@@ -13487,7 +13487,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C340" s="2" t="n">
@@ -13565,7 +13565,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C342" s="2" t="n">
@@ -13604,7 +13604,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C343" s="2" t="n">
@@ -13643,7 +13643,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C344" s="2" t="n">
@@ -13686,7 +13686,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C345" s="2" t="n">
@@ -13721,7 +13721,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C346" s="2" t="n">
@@ -13756,7 +13756,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C347" s="2" t="n">
@@ -13791,7 +13791,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C348" s="2" t="n">
@@ -13830,7 +13830,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C349" s="2" t="n">
@@ -13869,7 +13869,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C350" s="2" t="n">
@@ -13904,7 +13904,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C351" s="2" t="n">
@@ -13943,7 +13943,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C352" s="2" t="n">
@@ -14021,7 +14021,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C354" s="2" t="n">
@@ -14060,7 +14060,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C355" s="2" t="n">
@@ -14099,7 +14099,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C356" s="2" t="n">
@@ -14142,7 +14142,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C357" s="2" t="n">
@@ -14177,7 +14177,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C358" s="2" t="n">
@@ -14212,7 +14212,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C359" s="2" t="n">
@@ -14247,7 +14247,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C360" s="2" t="n">
@@ -14286,7 +14286,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C361" s="2" t="n">
@@ -14325,7 +14325,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C362" s="2" t="n">
@@ -14360,7 +14360,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C363" s="2" t="n">
@@ -14399,7 +14399,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C364" s="2" t="n">
@@ -14477,7 +14477,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C366" s="2" t="n">
@@ -14516,7 +14516,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C367" s="2" t="n">
@@ -14555,7 +14555,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C368" s="2" t="n">
@@ -14598,7 +14598,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C369" s="2" t="n">
@@ -14633,7 +14633,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C370" s="2" t="n">
@@ -14668,7 +14668,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C371" s="2" t="n">
@@ -14703,7 +14703,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C372" s="2" t="n">
@@ -14742,7 +14742,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C373" s="2" t="n">
@@ -14781,7 +14781,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C374" s="2" t="n">
@@ -14816,7 +14816,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C375" s="2" t="n">
@@ -14855,7 +14855,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C376" s="2" t="n">
@@ -14933,7 +14933,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C378" s="2" t="n">
@@ -14972,7 +14972,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C379" s="2" t="n">
@@ -15011,7 +15011,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C380" s="2" t="n">
@@ -15054,7 +15054,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C381" s="2" t="n">
@@ -15089,7 +15089,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C382" s="2" t="n">
@@ -15124,7 +15124,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C383" s="2" t="n">
@@ -15159,7 +15159,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C384" s="2" t="n">
@@ -15198,7 +15198,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C385" s="2" t="n">
@@ -15237,7 +15237,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C386" s="2" t="n">
@@ -15272,7 +15272,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C387" s="2" t="n">
@@ -15311,7 +15311,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C388" s="2" t="n">
@@ -15389,7 +15389,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C390" s="2" t="n">
@@ -15428,7 +15428,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C391" s="2" t="n">
@@ -15467,7 +15467,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C392" s="2" t="n">
@@ -15510,7 +15510,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C393" s="2" t="n">
@@ -15545,7 +15545,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C394" s="2" t="n">
@@ -15580,7 +15580,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C395" s="2" t="n">
@@ -15615,7 +15615,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C396" s="2" t="n">
@@ -15654,7 +15654,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C397" s="2" t="n">
@@ -15693,7 +15693,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C398" s="2" t="n">
@@ -15728,7 +15728,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C399" s="2" t="n">
@@ -15767,7 +15767,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C400" s="2" t="n">
@@ -15845,7 +15845,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C402" s="2" t="n">
@@ -15884,7 +15884,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C403" s="2" t="n">
@@ -15923,7 +15923,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C404" s="2" t="n">
@@ -15966,7 +15966,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C405" s="2" t="n">
@@ -16001,7 +16001,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C406" s="2" t="n">
@@ -16036,7 +16036,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C407" s="2" t="n">
@@ -16071,7 +16071,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C408" s="2" t="n">
@@ -16110,7 +16110,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C409" s="2" t="n">
@@ -16149,7 +16149,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C410" s="2" t="n">
@@ -16184,7 +16184,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C411" s="2" t="n">
@@ -16223,7 +16223,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C412" s="2" t="n">
@@ -16301,7 +16301,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C414" s="2" t="n">
@@ -16340,7 +16340,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C415" s="2" t="n">
@@ -16379,7 +16379,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C416" s="2" t="n">
@@ -16422,7 +16422,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C417" s="2" t="n">
@@ -16457,7 +16457,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C418" s="2" t="n">
@@ -16492,7 +16492,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C419" s="2" t="n">
@@ -16527,7 +16527,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C420" s="2" t="n">
@@ -16566,7 +16566,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C421" s="2" t="n">
@@ -16605,7 +16605,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C422" s="2" t="n">
@@ -16640,7 +16640,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C423" s="2" t="n">
@@ -16679,7 +16679,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C424" s="2" t="n">
@@ -16757,7 +16757,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C426" s="2" t="n">
@@ -16796,7 +16796,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C427" s="2" t="n">
@@ -16835,7 +16835,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C428" s="2" t="n">
@@ -16878,7 +16878,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C429" s="2" t="n">
@@ -16913,7 +16913,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C430" s="2" t="n">
@@ -16948,7 +16948,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C431" s="2" t="n">
@@ -16983,7 +16983,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C432" s="2" t="n">
@@ -17022,7 +17022,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C433" s="2" t="n">
@@ -17061,7 +17061,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C434" s="2" t="n">
@@ -17100,7 +17100,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C435" s="2" t="n">
@@ -17135,7 +17135,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C436" s="2" t="n">
@@ -17174,7 +17174,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C437" s="2" t="n">
@@ -17252,7 +17252,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C439" s="2" t="n">
@@ -17291,7 +17291,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C440" s="2" t="n">
@@ -17330,7 +17330,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C441" s="2" t="n">
@@ -17373,7 +17373,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C442" s="2" t="n">
@@ -17408,7 +17408,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C443" s="2" t="n">
@@ -17443,7 +17443,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C444" s="2" t="n">
@@ -17478,7 +17478,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C445" s="2" t="n">
@@ -17517,7 +17517,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C446" s="2" t="n">
@@ -17556,7 +17556,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C447" s="2" t="n">
@@ -17595,7 +17595,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C448" s="2" t="n">
@@ -17630,7 +17630,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C449" s="2" t="n">
@@ -17669,7 +17669,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C450" s="2" t="n">
@@ -17747,7 +17747,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C452" s="2" t="n">
@@ -17786,7 +17786,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C453" s="2" t="n">
@@ -17825,7 +17825,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C454" s="2" t="n">
@@ -17868,7 +17868,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C455" s="2" t="n">
@@ -17903,7 +17903,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C456" s="2" t="n">
@@ -17938,7 +17938,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C457" s="2" t="n">
@@ -17973,7 +17973,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C458" s="2" t="n">
@@ -18012,7 +18012,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C459" s="2" t="n">
@@ -18051,7 +18051,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C460" s="2" t="n">
@@ -18086,7 +18086,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C461" s="2" t="n">
@@ -18125,7 +18125,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C462" s="2" t="n">
@@ -18203,7 +18203,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C464" s="2" t="n">
@@ -18242,7 +18242,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C465" s="2" t="n">
@@ -18281,7 +18281,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C466" s="2" t="n">
@@ -18324,7 +18324,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C467" s="2" t="n">
@@ -18359,7 +18359,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C468" s="2" t="n">
@@ -18394,7 +18394,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C469" s="2" t="n">
@@ -18429,7 +18429,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C470" s="2" t="n">
@@ -18468,7 +18468,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C471" s="2" t="n">
@@ -18507,7 +18507,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C472" s="2" t="n">
@@ -18546,7 +18546,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C473" s="2" t="n">
@@ -18581,7 +18581,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C474" s="2" t="n">
@@ -18620,7 +18620,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C475" s="2" t="n">
@@ -18698,7 +18698,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C477" s="2" t="n">
@@ -18737,7 +18737,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C478" s="2" t="n">
@@ -18776,7 +18776,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C479" s="2" t="n">
@@ -18819,7 +18819,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C480" s="2" t="n">
@@ -18854,7 +18854,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C481" s="2" t="n">
@@ -18889,7 +18889,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C482" s="2" t="n">
@@ -18924,7 +18924,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C483" s="2" t="n">
@@ -18963,7 +18963,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C484" s="2" t="n">
@@ -19002,7 +19002,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C485" s="2" t="n">
@@ -19037,7 +19037,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C486" s="2" t="n">
@@ -19076,7 +19076,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C487" s="2" t="n">
@@ -19154,7 +19154,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C489" s="2" t="n">
@@ -19193,7 +19193,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C490" s="2" t="n">
@@ -19232,7 +19232,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C491" s="2" t="n">
@@ -19275,7 +19275,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C492" s="2" t="n">
@@ -19310,7 +19310,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C493" s="2" t="n">
@@ -19345,7 +19345,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C494" s="2" t="n">
@@ -19380,7 +19380,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C495" s="2" t="n">
@@ -19419,7 +19419,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C496" s="2" t="n">
@@ -19458,7 +19458,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C497" s="2" t="n">
@@ -19501,7 +19501,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C498" s="2" t="n">
@@ -19536,7 +19536,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C499" s="2" t="n">
@@ -19575,7 +19575,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C500" s="2" t="n">
@@ -19653,7 +19653,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C502" s="2" t="n">
@@ -19692,7 +19692,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C503" s="2" t="n">
@@ -19731,7 +19731,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C504" s="2" t="n">
@@ -19774,7 +19774,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C505" s="2" t="n">
@@ -19809,7 +19809,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C506" s="2" t="n">
@@ -19844,7 +19844,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C507" s="2" t="n">
@@ -19879,7 +19879,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C508" s="2" t="n">
@@ -19918,7 +19918,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C509" s="2" t="n">
@@ -19957,7 +19957,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C510" s="2" t="n">
@@ -19992,7 +19992,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C511" s="2" t="n">
@@ -20031,7 +20031,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C512" s="2" t="n">
@@ -20109,7 +20109,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C514" s="2" t="n">
@@ -20148,7 +20148,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C515" s="2" t="n">
@@ -20187,7 +20187,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C516" s="2" t="n">
@@ -20230,7 +20230,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C517" s="2" t="n">
@@ -20265,7 +20265,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C518" s="2" t="n">
@@ -20300,7 +20300,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C519" s="2" t="n">
@@ -20335,7 +20335,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C520" s="2" t="n">
@@ -20374,7 +20374,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C521" s="2" t="n">
@@ -20413,7 +20413,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C522" s="2" t="n">
@@ -20448,7 +20448,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C523" s="2" t="n">
@@ -20487,7 +20487,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C524" s="2" t="n">
@@ -20565,7 +20565,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C526" s="2" t="n">
@@ -20604,7 +20604,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C527" s="2" t="n">
@@ -20643,7 +20643,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C528" s="2" t="n">
@@ -20686,7 +20686,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C529" s="2" t="n">
@@ -20721,7 +20721,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C530" s="2" t="n">
@@ -20756,7 +20756,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C531" s="2" t="n">
@@ -20791,7 +20791,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C532" s="2" t="n">
@@ -20830,7 +20830,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C533" s="2" t="n">
@@ -20869,7 +20869,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C534" s="2" t="n">
@@ -20904,7 +20904,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C535" s="2" t="n">
@@ -20943,7 +20943,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C536" s="2" t="n">
@@ -21021,7 +21021,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C538" s="2" t="n">
@@ -21060,7 +21060,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C539" s="2" t="n">
@@ -21099,7 +21099,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C540" s="2" t="n">
@@ -21142,7 +21142,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C541" s="2" t="n">
@@ -21177,7 +21177,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C542" s="2" t="n">
@@ -21212,7 +21212,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C543" s="2" t="n">
@@ -21247,7 +21247,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C544" s="2" t="n">
@@ -21286,7 +21286,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C545" s="2" t="n">
@@ -21325,7 +21325,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C546" s="2" t="n">
@@ -21360,7 +21360,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C547" s="2" t="n">
@@ -21399,7 +21399,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C548" s="2" t="n">
@@ -21477,7 +21477,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C550" s="2" t="n">
@@ -21516,7 +21516,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C551" s="2" t="n">
@@ -21555,7 +21555,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C552" s="2" t="n">
@@ -21598,7 +21598,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C553" s="2" t="n">
@@ -21633,7 +21633,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C554" s="2" t="n">
@@ -21668,7 +21668,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C555" s="2" t="n">
@@ -21703,7 +21703,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C556" s="2" t="n">
@@ -21742,7 +21742,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C557" s="2" t="n">
@@ -21781,7 +21781,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C558" s="2" t="n">
@@ -21816,7 +21816,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C559" s="2" t="n">
@@ -21855,7 +21855,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C560" s="2" t="n">
@@ -21933,7 +21933,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C562" s="2" t="n">
@@ -21972,7 +21972,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C563" s="2" t="n">
@@ -22011,7 +22011,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C564" s="2" t="n">
@@ -22054,7 +22054,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C565" s="2" t="n">
@@ -22089,7 +22089,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C566" s="2" t="n">
@@ -22124,7 +22124,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C567" s="2" t="n">
@@ -22159,7 +22159,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C568" s="2" t="n">
@@ -22198,7 +22198,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C569" s="2" t="n">
@@ -22237,7 +22237,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C570" s="2" t="n">
@@ -22272,7 +22272,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C571" s="2" t="n">
@@ -22311,7 +22311,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C572" s="2" t="n">
@@ -22389,7 +22389,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C574" s="2" t="n">
@@ -22428,7 +22428,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C575" s="2" t="n">
@@ -22467,7 +22467,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C576" s="2" t="n">
@@ -22510,7 +22510,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C577" s="2" t="n">
@@ -22545,7 +22545,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C578" s="2" t="n">
@@ -22580,7 +22580,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C579" s="2" t="n">
@@ -22615,7 +22615,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C580" s="2" t="n">
@@ -22654,7 +22654,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C581" s="2" t="n">
@@ -22693,7 +22693,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C582" s="2" t="n">
@@ -22728,7 +22728,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C583" s="2" t="n">
@@ -22767,7 +22767,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C584" s="2" t="n">
@@ -22845,7 +22845,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C586" s="2" t="n">
@@ -22884,7 +22884,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C587" s="2" t="n">
@@ -22923,7 +22923,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C588" s="2" t="n">
@@ -22966,7 +22966,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C589" s="2" t="n">
@@ -23001,7 +23001,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C590" s="2" t="n">
@@ -23036,7 +23036,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C591" s="2" t="n">
@@ -23071,7 +23071,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C592" s="2" t="n">
@@ -23110,7 +23110,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C593" s="2" t="n">
@@ -23149,7 +23149,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C594" s="2" t="n">
@@ -23184,7 +23184,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C595" s="2" t="n">
@@ -23223,7 +23223,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C596" s="2" t="n">
@@ -23301,7 +23301,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C598" s="2" t="n">
@@ -23340,7 +23340,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C599" s="2" t="n">
@@ -23379,7 +23379,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C600" s="2" t="n">
@@ -23422,7 +23422,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C601" s="2" t="n">
@@ -23457,7 +23457,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C602" s="2" t="n">
@@ -23492,7 +23492,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C603" s="2" t="n">
@@ -23527,7 +23527,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C604" s="2" t="n">
@@ -23566,7 +23566,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C605" s="2" t="n">
@@ -23605,7 +23605,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C606" s="2" t="n">
@@ -23640,7 +23640,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C607" s="2" t="n">
@@ -23679,7 +23679,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C608" s="2" t="n">
@@ -23757,7 +23757,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C610" s="2" t="n">
@@ -23796,7 +23796,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C611" s="2" t="n">
@@ -23835,7 +23835,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C612" s="2" t="n">
@@ -23878,7 +23878,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C613" s="2" t="n">
@@ -23913,7 +23913,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C614" s="2" t="n">
@@ -23948,7 +23948,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C615" s="2" t="n">
@@ -23983,7 +23983,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C616" s="2" t="n">
@@ -24022,7 +24022,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C617" s="2" t="n">
@@ -24061,7 +24061,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C618" s="2" t="n">
@@ -24096,7 +24096,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C619" s="2" t="n">
@@ -24135,7 +24135,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C620" s="2" t="n">
@@ -24213,7 +24213,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C622" s="2" t="n">
@@ -24252,7 +24252,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C623" s="2" t="n">
@@ -24291,7 +24291,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C624" s="2" t="n">
@@ -24334,7 +24334,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C625" s="2" t="n">
@@ -24369,7 +24369,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C626" s="2" t="n">
@@ -24404,7 +24404,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C627" s="2" t="n">
@@ -24439,7 +24439,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C628" s="2" t="n">
@@ -24478,7 +24478,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C629" s="2" t="n">
@@ -24517,7 +24517,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C630" s="2" t="n">
@@ -24552,7 +24552,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C631" s="2" t="n">
@@ -24591,7 +24591,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C632" s="2" t="n">
@@ -24669,7 +24669,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C634" s="2" t="n">
@@ -24708,7 +24708,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C635" s="2" t="n">
@@ -24747,7 +24747,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C636" s="2" t="n">
@@ -24790,7 +24790,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C637" s="2" t="n">
@@ -24825,7 +24825,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C638" s="2" t="n">
@@ -24860,7 +24860,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C639" s="2" t="n">
@@ -24895,7 +24895,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C640" s="2" t="n">
@@ -24934,7 +24934,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C641" s="2" t="n">
@@ -24973,7 +24973,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C642" s="2" t="n">
@@ -25008,7 +25008,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C643" s="2" t="n">
@@ -25047,7 +25047,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C644" s="2" t="n">
@@ -25125,7 +25125,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C646" s="2" t="n">
@@ -25164,7 +25164,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C647" s="2" t="n">
@@ -25203,7 +25203,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C648" s="2" t="n">
@@ -25246,7 +25246,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C649" s="2" t="n">
@@ -25281,7 +25281,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C650" s="2" t="n">
@@ -25316,7 +25316,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C651" s="2" t="n">
@@ -25351,7 +25351,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C652" s="2" t="n">
@@ -25390,7 +25390,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C653" s="2" t="n">
@@ -25429,7 +25429,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C654" s="2" t="n">
@@ -25464,7 +25464,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C655" s="2" t="n">
@@ -25503,7 +25503,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C656" s="2" t="n">
@@ -25581,7 +25581,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C658" s="2" t="n">
@@ -25620,7 +25620,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C659" s="2" t="n">
@@ -25659,7 +25659,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C660" s="2" t="n">
@@ -25702,7 +25702,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C661" s="2" t="n">
@@ -25737,7 +25737,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C662" s="2" t="n">
@@ -25772,7 +25772,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C663" s="2" t="n">
@@ -25807,7 +25807,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C664" s="2" t="n">
@@ -25846,7 +25846,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C665" s="2" t="n">
@@ -25885,7 +25885,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C666" s="2" t="n">
@@ -25924,7 +25924,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C667" s="2" t="n">
@@ -25959,7 +25959,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C668" s="2" t="n">
@@ -25998,7 +25998,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C669" s="2" t="n">
@@ -26076,7 +26076,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C671" s="2" t="n">
@@ -26115,7 +26115,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C672" s="2" t="n">
@@ -26154,7 +26154,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C673" s="2" t="n">
@@ -26197,7 +26197,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C674" s="2" t="n">
@@ -26232,7 +26232,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C675" s="2" t="n">
@@ -26267,7 +26267,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C676" s="2" t="n">
@@ -26302,7 +26302,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C677" s="2" t="n">
@@ -26341,7 +26341,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C678" s="2" t="n">
@@ -26380,7 +26380,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C679" s="2" t="n">
@@ -26419,7 +26419,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C680" s="2" t="n">
@@ -26454,7 +26454,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C681" s="2" t="n">
@@ -26493,7 +26493,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C682" s="2" t="n">
@@ -26571,7 +26571,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C684" s="2" t="n">
@@ -26610,7 +26610,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C685" s="2" t="n">
@@ -26649,7 +26649,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C686" s="2" t="n">
@@ -26692,7 +26692,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C687" s="2" t="n">
@@ -26727,7 +26727,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C688" s="2" t="n">
@@ -26762,7 +26762,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C689" s="2" t="n">
@@ -26797,7 +26797,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C690" s="2" t="n">
@@ -26836,7 +26836,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C691" s="2" t="n">
@@ -26875,7 +26875,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C692" s="2" t="n">
@@ -26910,7 +26910,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C693" s="2" t="n">
@@ -26949,7 +26949,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C694" s="2" t="n">
@@ -27027,7 +27027,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C696" s="2" t="n">
@@ -27066,7 +27066,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C697" s="2" t="n">
@@ -27105,7 +27105,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C698" s="2" t="n">
@@ -27148,7 +27148,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C699" s="2" t="n">
@@ -27183,7 +27183,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C700" s="2" t="n">
@@ -27218,7 +27218,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C701" s="2" t="n">
@@ -27253,7 +27253,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C702" s="2" t="n">
@@ -27292,7 +27292,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C703" s="2" t="n">
@@ -27331,7 +27331,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C704" s="2" t="n">
@@ -27374,7 +27374,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C705" s="2" t="n">
@@ -27409,7 +27409,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C706" s="2" t="n">
@@ -27448,7 +27448,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C707" s="2" t="n">
@@ -27526,7 +27526,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C709" s="2" t="n">
@@ -27565,7 +27565,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C710" s="2" t="n">
@@ -27604,7 +27604,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C711" s="2" t="n">
@@ -27647,7 +27647,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C712" s="2" t="n">
@@ -27682,7 +27682,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C713" s="2" t="n">
@@ -27717,7 +27717,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C714" s="2" t="n">
@@ -27752,7 +27752,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C715" s="2" t="n">
@@ -27791,7 +27791,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C716" s="2" t="n">
@@ -27830,7 +27830,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C717" s="2" t="n">
@@ -27873,7 +27873,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C718" s="2" t="n">
@@ -27908,7 +27908,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C719" s="2" t="n">
@@ -27947,7 +27947,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C720" s="2" t="n">
@@ -28025,7 +28025,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C722" s="2" t="n">
@@ -28064,7 +28064,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C723" s="2" t="n">
@@ -28103,7 +28103,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C724" s="2" t="n">
@@ -28146,7 +28146,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C725" s="2" t="n">
@@ -28181,7 +28181,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C726" s="2" t="n">
@@ -28216,7 +28216,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C727" s="2" t="n">
@@ -28251,7 +28251,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C728" s="2" t="n">
@@ -28290,7 +28290,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C729" s="2" t="n">
@@ -28333,7 +28333,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C730" s="2" t="n">
@@ -28372,7 +28372,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C731" s="2" t="n">
@@ -28415,7 +28415,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C732" s="2" t="n">
@@ -28493,7 +28493,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C734" s="2" t="n">
@@ -28536,7 +28536,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C735" s="2" t="n">
@@ -28579,7 +28579,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C736" s="2" t="n">
@@ -28622,7 +28622,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C737" s="2" t="n">
@@ -28661,7 +28661,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C738" s="2" t="n">
@@ -28700,7 +28700,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C739" s="2" t="n">
@@ -28739,7 +28739,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C740" s="2" t="n">
@@ -28782,7 +28782,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C741" s="2" t="n">
@@ -28825,7 +28825,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C742" s="2" t="n">
@@ -28864,7 +28864,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C743" s="2" t="n">
@@ -28907,7 +28907,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C744" s="2" t="n">
@@ -28985,7 +28985,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C746" s="2" t="n">
@@ -29028,7 +29028,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C747" s="2" t="n">
@@ -29071,7 +29071,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C748" s="2" t="n">
@@ -29114,7 +29114,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C749" s="2" t="n">
@@ -29153,7 +29153,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C750" s="2" t="n">
@@ -29192,7 +29192,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C751" s="2" t="n">
@@ -29231,7 +29231,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C752" s="2" t="n">
@@ -29274,7 +29274,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C753" s="2" t="n">
@@ -29317,7 +29317,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C754" s="2" t="n">
@@ -29356,7 +29356,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C755" s="2" t="n">
@@ -29395,7 +29395,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C756" s="2" t="n">
@@ -29438,7 +29438,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C757" s="2" t="n">
@@ -29516,7 +29516,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C759" s="2" t="n">
@@ -29559,7 +29559,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C760" s="2" t="n">
@@ -29602,7 +29602,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C761" s="2" t="n">
@@ -29645,7 +29645,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C762" s="2" t="n">
@@ -29684,7 +29684,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C763" s="2" t="n">
@@ -29723,7 +29723,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C764" s="2" t="n">
@@ -29762,7 +29762,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C765" s="2" t="n">
@@ -29805,7 +29805,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C766" s="2" t="n">
@@ -29848,7 +29848,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C767" s="2" t="n">
@@ -29887,7 +29887,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C768" s="2" t="n">
@@ -29926,7 +29926,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C769" s="2" t="n">
@@ -29969,7 +29969,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C770" s="2" t="n">
@@ -30047,7 +30047,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C772" s="2" t="n">
@@ -30090,7 +30090,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C773" s="2" t="n">
@@ -30133,7 +30133,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C774" s="2" t="n">
@@ -30176,7 +30176,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C775" s="2" t="n">
@@ -30215,7 +30215,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C776" s="2" t="n">
@@ -30254,7 +30254,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C777" s="2" t="n">
@@ -30293,7 +30293,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C778" s="2" t="n">
@@ -30336,7 +30336,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C779" s="2" t="n">
@@ -30379,7 +30379,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C780" s="2" t="n">
@@ -30418,7 +30418,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C781" s="2" t="n">
@@ -30461,7 +30461,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C782" s="2" t="n">
@@ -30539,7 +30539,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C784" s="2" t="n">
@@ -30582,7 +30582,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C785" s="2" t="n">
@@ -30625,7 +30625,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C786" s="2" t="n">
@@ -30668,7 +30668,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C787" s="2" t="n">
@@ -30707,7 +30707,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C788" s="2" t="n">
@@ -30746,7 +30746,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C789" s="2" t="n">
@@ -30785,7 +30785,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C790" s="2" t="n">
@@ -30828,7 +30828,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C791" s="2" t="n">
@@ -30871,7 +30871,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C792" s="2" t="n">
@@ -30910,7 +30910,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C793" s="2" t="n">
@@ -30953,7 +30953,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C794" s="2" t="n">
@@ -31031,7 +31031,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C796" s="2" t="n">
@@ -31074,7 +31074,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C797" s="2" t="n">
@@ -31117,7 +31117,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C798" s="2" t="n">
@@ -31160,7 +31160,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C799" s="2" t="n">
@@ -31199,7 +31199,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C800" s="2" t="n">
@@ -31238,7 +31238,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C801" s="2" t="n">
@@ -31277,7 +31277,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C802" s="2" t="n">
@@ -31320,7 +31320,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C803" s="2" t="n">
@@ -31363,7 +31363,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C804" s="2" t="n">
@@ -31402,7 +31402,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C805" s="2" t="n">
@@ -31445,7 +31445,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C806" s="2" t="n">
@@ -31523,7 +31523,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C808" s="2" t="n">
@@ -31566,7 +31566,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C809" s="2" t="n">
@@ -31609,7 +31609,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C810" s="2" t="n">
@@ -31652,7 +31652,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C811" s="2" t="n">
@@ -31691,7 +31691,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C812" s="2" t="n">
@@ -31730,7 +31730,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C813" s="2" t="n">
@@ -31769,7 +31769,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C814" s="2" t="n">
@@ -31812,7 +31812,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C815" s="2" t="n">
@@ -31855,7 +31855,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C816" s="2" t="n">
@@ -31894,7 +31894,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C817" s="2" t="n">
@@ -31937,7 +31937,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C818" s="2" t="n">
@@ -32015,7 +32015,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C820" s="2" t="n">
@@ -32058,7 +32058,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C821" s="2" t="n">
@@ -32101,7 +32101,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C822" s="2" t="n">
@@ -32144,7 +32144,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C823" s="2" t="n">
@@ -32183,7 +32183,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C824" s="2" t="n">
@@ -32222,7 +32222,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C825" s="2" t="n">
@@ -32261,7 +32261,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C826" s="2" t="n">
